--- a/docs/CRONOGRAMA PROJETO STG.xlsx
+++ b/docs/CRONOGRAMA PROJETO STG.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER_NITRO_5\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{163D420E-CBBA-4150-B79F-BC294E0D7DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>LEVANTAMENTO DE IDEIAS</t>
   </si>
@@ -33,36 +39,12 @@
     <t>CRIAÇÃO DO CRONOGRAMA</t>
   </si>
   <si>
-    <t>CRIAÇÃO DA ESTRUTURA HTML/CSS</t>
-  </si>
-  <si>
     <t>SEPARAÇÃO DE TAREFAS AOS COLABORADORES</t>
   </si>
   <si>
-    <t>CRIAÇÃO DO FUNCIONAMENTO DE USO DA APLICAÇÃO (JAVASCRIPT)</t>
-  </si>
-  <si>
-    <t>VERIFICAÇÃO DE ACESSIBILIDADE</t>
-  </si>
-  <si>
-    <t>REVISÃO DE ERROS E POSSIBILIDADES DE QUEBRAS</t>
-  </si>
-  <si>
     <t>CRIAÇÃO DA DOCUMENTAÇÃO DO PROJETO</t>
   </si>
   <si>
-    <t>21/10 A 27/10</t>
-  </si>
-  <si>
-    <t>28/10 A 17/11</t>
-  </si>
-  <si>
-    <t>18/11 A 01/12</t>
-  </si>
-  <si>
-    <t>02/12 A 08/12</t>
-  </si>
-  <si>
     <t>CRIAÇÃO DO ARMAZENAMENTO DE DADOS DA APLICAÇÃO (PHP, ZEND FRAMEWORK E DOCTRINE ORM)</t>
   </si>
   <si>
@@ -91,13 +73,28 @@
   </si>
   <si>
     <t>Vinicius Sartre</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DA ESTRUTURA FRONT-END</t>
+  </si>
+  <si>
+    <t>21/10 A 01/12</t>
+  </si>
+  <si>
+    <t>17/11 A 01/12</t>
+  </si>
+  <si>
+    <t>01/12 A 08/12</t>
+  </si>
+  <si>
+    <t>POSSIBILIDADES DE QUEBRAS/ERROS E VERIFICAÇÃO DE ACESSIBILIDADE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,9 +132,17 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -179,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,19 +220,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -247,17 +239,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,189 +578,151 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="37.5" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="14.375" customWidth="1"/>
-    <col min="13" max="14" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="14" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.9" customHeight="1">
-      <c r="E5" s="4" t="s">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1">
-      <c r="E7" s="1" t="s">
+    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="39" customHeight="1">
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="3"/>
+    <row r="8" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="39.6" customHeight="1">
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="3"/>
+    <row r="9" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="50.45" customHeight="1">
-      <c r="E10" s="2" t="s">
+    <row r="10" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="46.9" customHeight="1">
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3"/>
+    <row r="11" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="63" customHeight="1">
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="45.6" customHeight="1">
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" ht="40.15" customHeight="1">
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/CRONOGRAMA PROJETO STG.xlsx
+++ b/docs/CRONOGRAMA PROJETO STG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER_NITRO_5\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{163D420E-CBBA-4150-B79F-BC294E0D7DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAA70B2-3F02-4717-A13D-A209F967EC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/docs/CRONOGRAMA PROJETO STG.xlsx
+++ b/docs/CRONOGRAMA PROJETO STG.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER_NITRO_5\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAA70B2-3F02-4717-A13D-A209F967EC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -93,8 +87,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +134,21 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -224,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +248,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -252,6 +260,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,73 +588,73 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="14" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="13" max="14" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" ht="18">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="18">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="18">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="18">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="25.9" customHeight="1">
       <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
@@ -661,68 +671,68 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="35.450000000000003" customHeight="1">
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="36" customHeight="1">
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="39" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="39.6" customHeight="1">
       <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="50.45" customHeight="1">
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="45.6" customHeight="1">
       <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="40.15" customHeight="1">
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
